--- a/platform/TestData/ValidationStrings.xlsx
+++ b/platform/TestData/ValidationStrings.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="3343"/>
   </bookViews>
   <sheets>
     <sheet name="Reset password" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Label</t>
   </si>
@@ -23,6 +24,15 @@
   </si>
   <si>
     <t>Locator</t>
+  </si>
+  <si>
+    <t>//p[@class='ep-complete__info-text']</t>
+  </si>
+  <si>
+    <t>PasswordChangeComplete</t>
+  </si>
+  <si>
+    <t>パスワードの変更が完了しました。</t>
   </si>
 </sst>
 </file>
@@ -373,13 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.07421875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -390,6 +402,17 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/platform/TestData/ValidationStrings.xlsx
+++ b/platform/TestData/ValidationStrings.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="3343"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="3343" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reset password" sheetId="1" r:id="rId1"/>
+    <sheet name="Create Account" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Label</t>
   </si>
@@ -385,7 +385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -418,4 +420,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/platform/TestData/ValidationStrings.xlsx
+++ b/platform/TestData/ValidationStrings.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="3343" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="3343"/>
   </bookViews>
   <sheets>
     <sheet name="Reset password" sheetId="1" r:id="rId1"/>
     <sheet name="Create Account" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M9"/>
 </workbook>
 </file>
 
@@ -385,7 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -426,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/platform/TestData/ValidationStrings.xlsx
+++ b/platform/TestData/ValidationStrings.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Create Account" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M9"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Label</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>パスワードの変更が完了しました。</t>
+  </si>
+  <si>
+    <t>//p[@class='alert__des']</t>
+  </si>
+  <si>
+    <t>メールアドレスは、メールアドレス形式で入力してください。</t>
+  </si>
+  <si>
+    <t>InvalidEmailError</t>
   </si>
 </sst>
 </file>
@@ -384,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -416,6 +425,17 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/platform/TestData/ValidationStrings.xlsx
+++ b/platform/TestData/ValidationStrings.xlsx
@@ -11,12 +11,11 @@
     <sheet name="Create Account" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Label</t>
   </si>
@@ -43,6 +42,12 @@
   </si>
   <si>
     <t>InvalidEmailError</t>
+  </si>
+  <si>
+    <t>InvalidPasswordError</t>
+  </si>
+  <si>
+    <t>パスワードが一致しません。</t>
   </si>
 </sst>
 </file>
@@ -393,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -436,6 +441,17 @@
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/platform/TestData/ValidationStrings.xlsx
+++ b/platform/TestData/ValidationStrings.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Create Account" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -401,7 +402,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/platform/TestData/ValidationStrings.xlsx
+++ b/platform/TestData/ValidationStrings.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="3343"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="3343" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reset password" sheetId="1" r:id="rId1"/>
     <sheet name="Create Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Label</t>
   </si>
@@ -49,13 +49,49 @@
   </si>
   <si>
     <t>パスワードが一致しません。</t>
+  </si>
+  <si>
+    <t>ResendCodeMessage</t>
+  </si>
+  <si>
+    <t>//div[@class='alert__title']</t>
+  </si>
+  <si>
+    <t>確認コードを再送しました、宛先メールをご確認ください。</t>
+  </si>
+  <si>
+    <t>InvalidCodeError</t>
+  </si>
+  <si>
+    <t>6桁の確認コードを入力してください。</t>
+  </si>
+  <si>
+    <t>InvalidEmailErrorMessage</t>
+  </si>
+  <si>
+    <t>ForgotPasswordPageMessage2</t>
+  </si>
+  <si>
+    <t>//p[@class='ep-reset-pass__desc']</t>
+  </si>
+  <si>
+    <t>パスワード再設定のメールをお送りします。</t>
+  </si>
+  <si>
+    <t>InvalidDetailsError</t>
+  </si>
+  <si>
+    <t>InvalidUserNameError</t>
+  </si>
+  <si>
+    <t>メールアドレスまたEiDまたはパスワードをご確認してください。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +106,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF402864"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,9 +134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -455,6 +498,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -462,10 +516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -481,6 +535,98 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/platform/TestData/ValidationStrings.xlsx
+++ b/platform/TestData/ValidationStrings.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/platform/TestData/ValidationStrings.xlsx
+++ b/platform/TestData/ValidationStrings.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="3343"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="3343" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reset password" sheetId="1" r:id="rId1"/>
     <sheet name="Create Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Label</t>
   </si>
@@ -49,13 +49,49 @@
   </si>
   <si>
     <t>パスワードが一致しません。</t>
+  </si>
+  <si>
+    <t>ResendCodeMessage</t>
+  </si>
+  <si>
+    <t>//div[@class='alert__title']</t>
+  </si>
+  <si>
+    <t>確認コードを再送しました、宛先メールをご確認ください。</t>
+  </si>
+  <si>
+    <t>InvalidCodeError</t>
+  </si>
+  <si>
+    <t>6桁の確認コードを入力してください。</t>
+  </si>
+  <si>
+    <t>InvalidEmailErrorMessage</t>
+  </si>
+  <si>
+    <t>ForgotPasswordPageMessage2</t>
+  </si>
+  <si>
+    <t>//p[@class='ep-reset-pass__desc']</t>
+  </si>
+  <si>
+    <t>パスワード再設定のメールをお送りします。</t>
+  </si>
+  <si>
+    <t>InvalidDetailsError</t>
+  </si>
+  <si>
+    <t>InvalidUserNameError</t>
+  </si>
+  <si>
+    <t>メールアドレスまたEiDまたはパスワードをご確認してください。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +106,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF402864"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,9 +134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -455,6 +498,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -462,10 +516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -481,6 +535,98 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/platform/TestData/ValidationStrings.xlsx
+++ b/platform/TestData/ValidationStrings.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="3343"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="4646"/>
   </bookViews>
   <sheets>
     <sheet name="Reset password" sheetId="1" r:id="rId1"/>
     <sheet name="Create Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:M14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Label</t>
   </si>
@@ -49,13 +50,49 @@
   </si>
   <si>
     <t>パスワードが一致しません。</t>
+  </si>
+  <si>
+    <t>ResendCodeMessage</t>
+  </si>
+  <si>
+    <t>//div[@class='alert__title']</t>
+  </si>
+  <si>
+    <t>確認コードを再送しました、宛先メールをご確認ください。</t>
+  </si>
+  <si>
+    <t>InvalidCodeError</t>
+  </si>
+  <si>
+    <t>6桁の確認コードを入力してください。</t>
+  </si>
+  <si>
+    <t>InvalidEmailErrorMessage</t>
+  </si>
+  <si>
+    <t>ForgotPasswordPageMessage2</t>
+  </si>
+  <si>
+    <t>//p[@class='ep-reset-pass__desc']</t>
+  </si>
+  <si>
+    <t>パスワード再設定のメールをお送りします。</t>
+  </si>
+  <si>
+    <t>InvalidDetailsError</t>
+  </si>
+  <si>
+    <t>InvalidUserNameError</t>
+  </si>
+  <si>
+    <t>メールアドレスまたEiDまたはパスワードをご確認してください。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +107,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF402864"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,9 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -455,6 +499,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -462,10 +517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -481,6 +536,98 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/platform/TestData/ValidationStrings.xlsx
+++ b/platform/TestData/ValidationStrings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="4646"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="3343" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reset password" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M14"/>
 </workbook>
 </file>
 
@@ -445,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -578,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
